--- a/biology/Botanique/Arrosoir/Arrosoir.xlsx
+++ b/biology/Botanique/Arrosoir/Arrosoir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un arrosoir est un récipient portable en matière étanche servant à transporter du liquide et à le déverser en une zone ponctuelle.
 </t>
@@ -511,7 +523,9 @@
           <t>Utilisations et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un arrosoir est principalement utilisé en jardinage, servant à l'arrosage manuel des plantes ou des semis, mais sa capacité à transporter du liquide et à le déverser de manière précise en fait un objet utilisable dans d'autres contextes (BTP, cimenterie, ...).
 Une des plus anciennes traces de l'arrosoir est une poterie nommée « chantepleure ». Sa forme se rapproche de celle d'une cloche, avec un goulot pour la prise en main et un fond percé de trous pour l'écoulement. Pour la remplir, il faut la tremper dans un bassin d'eau, c'est alors qu'on dit qu'elle chante… Ensuite, on la sort de l'eau en bouchant le trou du goulot de son pouce afin que l'eau ne coule pas. Enfin, lorsqu'on lâche son pouce, l'eau coule, on peut enfin arroser ; la chantepleure pleure.
@@ -550,9 +564,11 @@
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 10e jour du mois de thermidor du calendrier républicain / révolutionnaire français est dénommé jour de l'arrosoir[1], généralement chaque 28 juillet du calendrier grégorien.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 10e jour du mois de thermidor du calendrier républicain / révolutionnaire français est dénommé jour de l'arrosoir, généralement chaque 28 juillet du calendrier grégorien.
 </t>
         </is>
       </c>
@@ -581,13 +597,15 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il faut préférer un bon arrosage, plutôt que plusieurs légers[réf. nécessaire]. Pour ne pas tasser le sol, se servir d'un arrosoir à pomme[réf. nécessaire]. Pour obtenir un arrosage en pluie encore plus fine, retourner la pomme en plaçant les trous vers le haut, face au ciel. Pour que l'eau pénètre mieux dans une terre tassée, faire quelques trous avec un bâton avant d'arroser. Autour des jeunes arbres et arbustes, laisser une cuvette d'arrosage, ainsi l'eau se concentrera plus rapidement vers les racines[2].
-Arroser de préférence le soir ou tôt le matin (au lever du Soleil), afin d'éviter une évaporation à la fois dispendieuse et néfaste pour la plante[réf. nécessaire]. L'eau et le Soleil, par effet de loupe, brûlent les tissus épidermiques des plantes. Mais aussi, les plantes ferment leurs stomates pour limiter la transpiration[3]. Donc, un arrosage réalisé en pleine chaleur provoque une ouverture des stomates qui ne se referment pas assez rapidement. La plante peur alors mourir par dessèchement.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut préférer un bon arrosage, plutôt que plusieurs légers[réf. nécessaire]. Pour ne pas tasser le sol, se servir d'un arrosoir à pomme[réf. nécessaire]. Pour obtenir un arrosage en pluie encore plus fine, retourner la pomme en plaçant les trous vers le haut, face au ciel. Pour que l'eau pénètre mieux dans une terre tassée, faire quelques trous avec un bâton avant d'arroser. Autour des jeunes arbres et arbustes, laisser une cuvette d'arrosage, ainsi l'eau se concentrera plus rapidement vers les racines.
+Arroser de préférence le soir ou tôt le matin (au lever du Soleil), afin d'éviter une évaporation à la fois dispendieuse et néfaste pour la plante[réf. nécessaire]. L'eau et le Soleil, par effet de loupe, brûlent les tissus épidermiques des plantes. Mais aussi, les plantes ferment leurs stomates pour limiter la transpiration. Donc, un arrosage réalisé en pleine chaleur provoque une ouverture des stomates qui ne se referment pas assez rapidement. La plante peur alors mourir par dessèchement.
 Pour éviter de détruire la structure du sol, il est préférable de ne pas travailler un sol qui vient d'être copieusement arrosé[réf. nécessaire].
 Une étude sur l'appauvrissement des sols cultivables, faite par l'experte-agronome Alixanne Dufour, permet de créer le lien entre la surexposition des sols à l'eau de pluie et l'impact du TönissteineR sur l'appareil digestif humain. Selon l'étude, un volume supérieur à 55mL par cm2 peut détériorer les sols.
-L'eau de pluie est idéale pour l'arrosage notamment car elle est pauvre en chlore et sels minéraux[4]. Il faut la laisser toutefois quelques heures à température ambiante. On peut également utiliser de l'eau provenant d'une citerne. Ne jamais arroser directement avec de l'eau du robinet car une eau trop froide fragilise les jeunes plants[réf. nécessaire]. Il faut la laisser se reposer au moins une nuit : pour cela un geste simple consiste à remplir systématiquement l'arrosoir en fin d'arrosage.
+L'eau de pluie est idéale pour l'arrosage notamment car elle est pauvre en chlore et sels minéraux. Il faut la laisser toutefois quelques heures à température ambiante. On peut également utiliser de l'eau provenant d'une citerne. Ne jamais arroser directement avec de l'eau du robinet car une eau trop froide fragilise les jeunes plants[réf. nécessaire]. Il faut la laisser se reposer au moins une nuit : pour cela un geste simple consiste à remplir systématiquement l'arrosoir en fin d'arrosage.
 Sur les autres projets Wikimedia :
 les arrosoirs, sur Wikimedia Commons
 </t>
